--- a/src/com/NFHS/xls/Forgot Password.xlsx
+++ b/src/com/NFHS/xls/Forgot Password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17610" windowHeight="3855" tabRatio="968" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17610" windowHeight="3855" tabRatio="968" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="Forgot_Password15" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -275,12 +274,6 @@
     <t>test123</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
@@ -291,7 +284,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -697,17 +689,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -743,9 +735,6 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="51" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -760,9 +749,6 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="4" spans="1:6" s="13" customFormat="1" ht="78" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -777,9 +763,7 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1" ht="71.25" customHeight="1">
       <c r="A5" s="11" t="s">
@@ -794,9 +778,7 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:6" ht="75.75" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -811,9 +793,6 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="69.75" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -842,9 +821,7 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:6" ht="84.75" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -859,9 +836,6 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="63.75">
       <c r="A10" s="4" t="s">
@@ -876,9 +850,6 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="51">
       <c r="A11" s="4" t="s">
@@ -893,9 +864,6 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="12" spans="1:6" ht="89.25">
       <c r="A12" s="4" t="s">
@@ -910,9 +878,6 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="63.75">
       <c r="A13" s="7" t="s">
@@ -941,9 +906,6 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="15" spans="1:6" ht="114.75">
       <c r="A15" s="4" t="s">
@@ -958,9 +920,6 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="16" spans="1:6" ht="114.75">
       <c r="A16" s="4" t="s">
@@ -974,9 +933,6 @@
       </c>
       <c r="D16" t="s">
         <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -999,11 +955,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -1046,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1067,11 +1023,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -1114,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1135,9 +1091,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -1168,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1183,16 +1139,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
@@ -1217,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1228,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1250,10 +1206,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
@@ -1278,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1299,9 +1255,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -1332,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1354,10 +1310,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -1400,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1421,10 +1377,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -1455,7 +1411,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1476,10 +1432,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -1516,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1537,11 +1493,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -1584,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1599,18 +1555,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="23" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1">
@@ -1653,7 +1609,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/NFHS/xls/Forgot Password.xlsx
+++ b/src/com/NFHS/xls/Forgot Password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17610" windowHeight="3855" tabRatio="968" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17610" windowHeight="3855" tabRatio="968" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,11 @@
     <sheet name="Forgot_Password15" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -1415,13 +1414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
@@ -1599,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/src/com/NFHS/xls/Forgot Password.xlsx
+++ b/src/com/NFHS/xls/Forgot Password.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="13" customFormat="1" ht="71.25" customHeight="1">
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
